--- a/data/pca/factorExposure/factorExposure_2015-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02373612557880537</v>
+        <v>0.01058940126605294</v>
       </c>
       <c r="C2">
-        <v>0.02470481744092456</v>
+        <v>0.05197702704955699</v>
       </c>
       <c r="D2">
-        <v>-0.1172029567549677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1260457656850658</v>
+      </c>
+      <c r="E2">
+        <v>0.02513261313898758</v>
+      </c>
+      <c r="F2">
+        <v>-0.02643497626320182</v>
+      </c>
+      <c r="G2">
+        <v>-0.09224974657043371</v>
+      </c>
+      <c r="H2">
+        <v>-0.09771278161274739</v>
+      </c>
+      <c r="I2">
+        <v>-0.09148599401299255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04334456937449332</v>
+        <v>0.0156473753667862</v>
       </c>
       <c r="C4">
-        <v>0.07112229976622002</v>
+        <v>0.1065355572371161</v>
       </c>
       <c r="D4">
-        <v>-0.09965151458563325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1275931370570853</v>
+      </c>
+      <c r="E4">
+        <v>0.01635728834040639</v>
+      </c>
+      <c r="F4">
+        <v>-0.09464050961165681</v>
+      </c>
+      <c r="G4">
+        <v>-0.006465962152817995</v>
+      </c>
+      <c r="H4">
+        <v>-0.05530522919703573</v>
+      </c>
+      <c r="I4">
+        <v>0.06406739937425297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02527140184743451</v>
+        <v>0.0297848975523006</v>
       </c>
       <c r="C6">
-        <v>0.01283020745710296</v>
+        <v>0.03703357011635677</v>
       </c>
       <c r="D6">
-        <v>-0.1287469383087222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1217483742398739</v>
+      </c>
+      <c r="E6">
+        <v>0.06221928336639174</v>
+      </c>
+      <c r="F6">
+        <v>-0.04608529300041449</v>
+      </c>
+      <c r="G6">
+        <v>0.01939170325100176</v>
+      </c>
+      <c r="H6">
+        <v>-0.04749064120383493</v>
+      </c>
+      <c r="I6">
+        <v>7.313759181911917e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001814959138426436</v>
+        <v>0.00616256398812091</v>
       </c>
       <c r="C7">
-        <v>0.02259706945325855</v>
+        <v>0.03861734773694313</v>
       </c>
       <c r="D7">
-        <v>-0.1087079673478874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09541030086903231</v>
+      </c>
+      <c r="E7">
+        <v>0.0468377217006799</v>
+      </c>
+      <c r="F7">
+        <v>-0.004915350241782253</v>
+      </c>
+      <c r="G7">
+        <v>0.03781409404093863</v>
+      </c>
+      <c r="H7">
+        <v>-0.08160824192835034</v>
+      </c>
+      <c r="I7">
+        <v>0.04130677196028187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0003923861938954942</v>
+        <v>-0.007691516421511641</v>
       </c>
       <c r="C8">
-        <v>0.02450292227107913</v>
+        <v>0.03497310544801484</v>
       </c>
       <c r="D8">
-        <v>-0.07650509069798027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07615874671540568</v>
+      </c>
+      <c r="E8">
+        <v>0.03540577995273724</v>
+      </c>
+      <c r="F8">
+        <v>-0.05447625121270415</v>
+      </c>
+      <c r="G8">
+        <v>-0.05926072751569268</v>
+      </c>
+      <c r="H8">
+        <v>-0.03704705151359754</v>
+      </c>
+      <c r="I8">
+        <v>0.01482662261183261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03456311389908146</v>
+        <v>0.01139973801251833</v>
       </c>
       <c r="C9">
-        <v>0.06084757019749547</v>
+        <v>0.08777645362458898</v>
       </c>
       <c r="D9">
-        <v>-0.1086696645578062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1100622112230294</v>
+      </c>
+      <c r="E9">
+        <v>0.01503210132929095</v>
+      </c>
+      <c r="F9">
+        <v>-0.06217199077181942</v>
+      </c>
+      <c r="G9">
+        <v>0.02414424011454231</v>
+      </c>
+      <c r="H9">
+        <v>-0.06183741574291973</v>
+      </c>
+      <c r="I9">
+        <v>0.03382840665048622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1742247597358018</v>
+        <v>0.2412527455395419</v>
       </c>
       <c r="C10">
-        <v>-0.1725487983519497</v>
+        <v>-0.08828872335635488</v>
       </c>
       <c r="D10">
-        <v>0.01121705947995861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004989365614315107</v>
+      </c>
+      <c r="E10">
+        <v>-0.01772088170524386</v>
+      </c>
+      <c r="F10">
+        <v>-0.0497234231312004</v>
+      </c>
+      <c r="G10">
+        <v>-0.009010167763634513</v>
+      </c>
+      <c r="H10">
+        <v>0.0159462602256601</v>
+      </c>
+      <c r="I10">
+        <v>-0.01545341729240467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01938310135732565</v>
+        <v>0.009799149312428706</v>
       </c>
       <c r="C11">
-        <v>0.04185162621334962</v>
+        <v>0.05876938657510752</v>
       </c>
       <c r="D11">
-        <v>-0.04495377223664619</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04012160605757458</v>
+      </c>
+      <c r="E11">
+        <v>0.02172165171744693</v>
+      </c>
+      <c r="F11">
+        <v>0.01551854188147346</v>
+      </c>
+      <c r="G11">
+        <v>0.02247865772141882</v>
+      </c>
+      <c r="H11">
+        <v>-0.04515676129986776</v>
+      </c>
+      <c r="I11">
+        <v>0.03308728757020226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01877606770447539</v>
+        <v>0.009519174445157069</v>
       </c>
       <c r="C12">
-        <v>0.04152048012505571</v>
+        <v>0.0504732966863629</v>
       </c>
       <c r="D12">
-        <v>-0.05692964719904658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0439843783667632</v>
+      </c>
+      <c r="E12">
+        <v>0.01610663992694933</v>
+      </c>
+      <c r="F12">
+        <v>0.01938051113879971</v>
+      </c>
+      <c r="G12">
+        <v>0.04429286361105381</v>
+      </c>
+      <c r="H12">
+        <v>-0.05893873100746536</v>
+      </c>
+      <c r="I12">
+        <v>0.007384039156880471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005052684261429426</v>
+        <v>-0.00509906198018042</v>
       </c>
       <c r="C13">
-        <v>0.02490371219287021</v>
+        <v>0.05008411264430518</v>
       </c>
       <c r="D13">
-        <v>-0.1288223203872295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1431859806472987</v>
+      </c>
+      <c r="E13">
+        <v>0.03777178862984931</v>
+      </c>
+      <c r="F13">
+        <v>-0.03221888433378772</v>
+      </c>
+      <c r="G13">
+        <v>0.001700107204247046</v>
+      </c>
+      <c r="H13">
+        <v>-0.08212412533236621</v>
+      </c>
+      <c r="I13">
+        <v>-0.04656465228658564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003952929812582103</v>
+        <v>0.002570393565033744</v>
       </c>
       <c r="C14">
-        <v>0.01641731722551747</v>
+        <v>0.0323079852865706</v>
       </c>
       <c r="D14">
-        <v>-0.08719315576434414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09687845855857158</v>
+      </c>
+      <c r="E14">
+        <v>0.05178842680769043</v>
+      </c>
+      <c r="F14">
+        <v>-0.03017715463021746</v>
+      </c>
+      <c r="G14">
+        <v>0.02513922696859326</v>
+      </c>
+      <c r="H14">
+        <v>-0.1374192806161409</v>
+      </c>
+      <c r="I14">
+        <v>-0.006586926669696925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002557888995623783</v>
+        <v>-0.004605968582926715</v>
       </c>
       <c r="C15">
-        <v>0.01000106401536775</v>
+        <v>0.0285548095791945</v>
       </c>
       <c r="D15">
-        <v>-0.03625590245590112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.06135464973605346</v>
+      </c>
+      <c r="E15">
+        <v>0.01374150063459786</v>
+      </c>
+      <c r="F15">
+        <v>-0.0098979699689012</v>
+      </c>
+      <c r="G15">
+        <v>-0.01103096107696391</v>
+      </c>
+      <c r="H15">
+        <v>-0.04867525243471513</v>
+      </c>
+      <c r="I15">
+        <v>0.01189357579783456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01810486955108539</v>
+        <v>0.008984539107524215</v>
       </c>
       <c r="C16">
-        <v>0.03758447909916863</v>
+        <v>0.05072834741013255</v>
       </c>
       <c r="D16">
-        <v>-0.04968444603486632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04131888659865245</v>
+      </c>
+      <c r="E16">
+        <v>0.02343011414415076</v>
+      </c>
+      <c r="F16">
+        <v>0.01090418231659027</v>
+      </c>
+      <c r="G16">
+        <v>0.03264200931339484</v>
+      </c>
+      <c r="H16">
+        <v>-0.03971289444033256</v>
+      </c>
+      <c r="I16">
+        <v>0.02000481364827482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0005812796604158335</v>
+        <v>-0.003369417444866499</v>
       </c>
       <c r="C19">
-        <v>0.02168645861799113</v>
+        <v>0.01711589541738167</v>
       </c>
       <c r="D19">
-        <v>-0.07792283611106281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0532200031310487</v>
+      </c>
+      <c r="E19">
+        <v>-0.009986781550537355</v>
+      </c>
+      <c r="F19">
+        <v>-0.01160469535752793</v>
+      </c>
+      <c r="G19">
+        <v>-0.001492484018426377</v>
+      </c>
+      <c r="H19">
+        <v>-0.04844847715380764</v>
+      </c>
+      <c r="I19">
+        <v>-0.01621977193654765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002941326321334309</v>
+        <v>0.003708931060229393</v>
       </c>
       <c r="C20">
-        <v>0.02508186695611138</v>
+        <v>0.04221806392584142</v>
       </c>
       <c r="D20">
-        <v>-0.07589354604233618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08722549956858661</v>
+      </c>
+      <c r="E20">
+        <v>0.02358459189697994</v>
+      </c>
+      <c r="F20">
+        <v>-0.02677727960544096</v>
+      </c>
+      <c r="G20">
+        <v>0.02310033295688659</v>
+      </c>
+      <c r="H20">
+        <v>-0.06046037194489588</v>
+      </c>
+      <c r="I20">
+        <v>0.04249849367615446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005298310260570703</v>
+        <v>0.00211954326533003</v>
       </c>
       <c r="C21">
-        <v>0.02976267860132139</v>
+        <v>0.04635155997433415</v>
       </c>
       <c r="D21">
-        <v>-0.1381592136170566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1236314665000543</v>
+      </c>
+      <c r="E21">
+        <v>0.03459840984961357</v>
+      </c>
+      <c r="F21">
+        <v>-0.08691258332242492</v>
+      </c>
+      <c r="G21">
+        <v>0.02897646269369698</v>
+      </c>
+      <c r="H21">
+        <v>-0.1871073944688921</v>
+      </c>
+      <c r="I21">
+        <v>-0.07770652991825258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002937580663532789</v>
+        <v>-0.01463040526156933</v>
       </c>
       <c r="C22">
-        <v>0.06694034016400424</v>
+        <v>0.0885283226281766</v>
       </c>
       <c r="D22">
-        <v>-0.2734266729572896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2709011371477319</v>
+      </c>
+      <c r="E22">
+        <v>0.07020536089221666</v>
+      </c>
+      <c r="F22">
+        <v>-0.02653842431748809</v>
+      </c>
+      <c r="G22">
+        <v>-0.4444007671912282</v>
+      </c>
+      <c r="H22">
+        <v>0.3205925573432806</v>
+      </c>
+      <c r="I22">
+        <v>-0.03207809606786686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003213083549231663</v>
+        <v>-0.01147577289457543</v>
       </c>
       <c r="C23">
-        <v>0.06741148467450701</v>
+        <v>0.0903083841002835</v>
       </c>
       <c r="D23">
-        <v>-0.2728508839980525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2734396560802482</v>
+      </c>
+      <c r="E23">
+        <v>0.06517558977491855</v>
+      </c>
+      <c r="F23">
+        <v>-0.02941522482701853</v>
+      </c>
+      <c r="G23">
+        <v>-0.4303549929356248</v>
+      </c>
+      <c r="H23">
+        <v>0.3072196439865045</v>
+      </c>
+      <c r="I23">
+        <v>-0.03333374557782169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02378048052048659</v>
+        <v>0.00944888505831978</v>
       </c>
       <c r="C24">
-        <v>0.05731500377790331</v>
+        <v>0.06729707404287195</v>
       </c>
       <c r="D24">
-        <v>-0.05957388780722765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04523929591850177</v>
+      </c>
+      <c r="E24">
+        <v>0.02977430457854538</v>
+      </c>
+      <c r="F24">
+        <v>0.007703542489524367</v>
+      </c>
+      <c r="G24">
+        <v>0.02547909427032702</v>
+      </c>
+      <c r="H24">
+        <v>-0.06866797994639957</v>
+      </c>
+      <c r="I24">
+        <v>0.02625700267884228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02423736477546352</v>
+        <v>0.01346466873415459</v>
       </c>
       <c r="C25">
-        <v>0.04888512891795058</v>
+        <v>0.06180982543816851</v>
       </c>
       <c r="D25">
-        <v>-0.05509831280761555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04826197658593481</v>
+      </c>
+      <c r="E25">
+        <v>0.01543176775022893</v>
+      </c>
+      <c r="F25">
+        <v>0.007210890501530272</v>
+      </c>
+      <c r="G25">
+        <v>0.02344962165876047</v>
+      </c>
+      <c r="H25">
+        <v>-0.03247681606029193</v>
+      </c>
+      <c r="I25">
+        <v>0.01859945192362234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.009677092302343928</v>
+        <v>0.01678414365462239</v>
       </c>
       <c r="C26">
-        <v>0.01489617766324848</v>
+        <v>0.02945661810263766</v>
       </c>
       <c r="D26">
-        <v>-0.07499165628618505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06595332920405121</v>
+      </c>
+      <c r="E26">
+        <v>0.041403821342799</v>
+      </c>
+      <c r="F26">
+        <v>-0.04237479209338099</v>
+      </c>
+      <c r="G26">
+        <v>0.02501710051995487</v>
+      </c>
+      <c r="H26">
+        <v>-0.1023012683691121</v>
+      </c>
+      <c r="I26">
+        <v>-0.001725761790554646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2604853154887564</v>
+        <v>0.3191295900947849</v>
       </c>
       <c r="C28">
-        <v>-0.1947272931396309</v>
+        <v>-0.08430963743971069</v>
       </c>
       <c r="D28">
-        <v>-0.001294110968275804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02373073148137032</v>
+      </c>
+      <c r="E28">
+        <v>-0.05058675245929378</v>
+      </c>
+      <c r="F28">
+        <v>-0.04824843790435308</v>
+      </c>
+      <c r="G28">
+        <v>-0.06070959000146339</v>
+      </c>
+      <c r="H28">
+        <v>-0.008008803194204373</v>
+      </c>
+      <c r="I28">
+        <v>0.002862261130132208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0002892634416799859</v>
+        <v>0.001053985496045739</v>
       </c>
       <c r="C29">
-        <v>0.02009824014179273</v>
+        <v>0.03802698301309609</v>
       </c>
       <c r="D29">
-        <v>-0.08544343507251831</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09970746346810776</v>
+      </c>
+      <c r="E29">
+        <v>0.05657152858467957</v>
+      </c>
+      <c r="F29">
+        <v>-0.03590809509066906</v>
+      </c>
+      <c r="G29">
+        <v>0.0376031804038482</v>
+      </c>
+      <c r="H29">
+        <v>-0.1460881620549938</v>
+      </c>
+      <c r="I29">
+        <v>-0.006452705053403942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02584154044726744</v>
+        <v>0.01255022889502119</v>
       </c>
       <c r="C30">
-        <v>0.06312944308708308</v>
+        <v>0.09187727143209752</v>
       </c>
       <c r="D30">
-        <v>-0.1471144579066406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1368681594932266</v>
+      </c>
+      <c r="E30">
+        <v>0.05347472714541885</v>
+      </c>
+      <c r="F30">
+        <v>-0.02343471179190846</v>
+      </c>
+      <c r="G30">
+        <v>-0.01264371943582512</v>
+      </c>
+      <c r="H30">
+        <v>-0.0545094594601464</v>
+      </c>
+      <c r="I30">
+        <v>0.04614982663881827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03662125554988012</v>
+        <v>0.00696726570545902</v>
       </c>
       <c r="C31">
-        <v>0.08370563839472715</v>
+        <v>0.09408629969912895</v>
       </c>
       <c r="D31">
-        <v>-0.05812484573062959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03734492457188145</v>
+      </c>
+      <c r="E31">
+        <v>0.02088145641016977</v>
+      </c>
+      <c r="F31">
+        <v>-0.01338972288509873</v>
+      </c>
+      <c r="G31">
+        <v>0.009936106844213654</v>
+      </c>
+      <c r="H31">
+        <v>-0.04312756211649761</v>
+      </c>
+      <c r="I31">
+        <v>0.007855361202846604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01523838278707181</v>
+        <v>0.009333271740511309</v>
       </c>
       <c r="C32">
-        <v>0.03422829674942433</v>
+        <v>0.04871585601618535</v>
       </c>
       <c r="D32">
-        <v>-0.05804853974260855</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.08900897072996825</v>
+      </c>
+      <c r="E32">
+        <v>-0.002019758899074826</v>
+      </c>
+      <c r="F32">
+        <v>-0.04960391629317493</v>
+      </c>
+      <c r="G32">
+        <v>-0.005974229626387132</v>
+      </c>
+      <c r="H32">
+        <v>-0.05078181173150409</v>
+      </c>
+      <c r="I32">
+        <v>-0.03282158192135976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007440125261829385</v>
+        <v>0.004039895024781338</v>
       </c>
       <c r="C33">
-        <v>0.04143329624924459</v>
+        <v>0.06090752013658705</v>
       </c>
       <c r="D33">
-        <v>-0.1199224965501862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1170820233732419</v>
+      </c>
+      <c r="E33">
+        <v>0.03221627373379205</v>
+      </c>
+      <c r="F33">
+        <v>-0.02483355801986943</v>
+      </c>
+      <c r="G33">
+        <v>0.01485865122039341</v>
+      </c>
+      <c r="H33">
+        <v>-0.05944591805127059</v>
+      </c>
+      <c r="I33">
+        <v>0.009637407760886429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02140443611271536</v>
+        <v>0.007131157650529091</v>
       </c>
       <c r="C34">
-        <v>0.05888571903606769</v>
+        <v>0.06202798151863027</v>
       </c>
       <c r="D34">
-        <v>-0.05422549497310965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02572376008753371</v>
+      </c>
+      <c r="E34">
+        <v>0.02902410123543912</v>
+      </c>
+      <c r="F34">
+        <v>0.0422274418659507</v>
+      </c>
+      <c r="G34">
+        <v>0.02433637836367142</v>
+      </c>
+      <c r="H34">
+        <v>-0.04586205495995441</v>
+      </c>
+      <c r="I34">
+        <v>0.008073321495370597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002700567060709339</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0117984209731649</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0338981454541114</v>
+      </c>
+      <c r="E35">
+        <v>0.004556235731140349</v>
+      </c>
+      <c r="F35">
+        <v>-0.01751249464279148</v>
+      </c>
+      <c r="G35">
+        <v>0.01651600854032726</v>
+      </c>
+      <c r="H35">
+        <v>-0.05714725019042403</v>
+      </c>
+      <c r="I35">
+        <v>0.007677701150790003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006171488372853485</v>
+        <v>0.01103240541764032</v>
       </c>
       <c r="C36">
-        <v>0.007078439051485933</v>
+        <v>0.02271192563420632</v>
       </c>
       <c r="D36">
-        <v>-0.07299893572569885</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07261497046850261</v>
+      </c>
+      <c r="E36">
+        <v>0.02980366209763747</v>
+      </c>
+      <c r="F36">
+        <v>-0.04814557941303134</v>
+      </c>
+      <c r="G36">
+        <v>0.01343040877511765</v>
+      </c>
+      <c r="H36">
+        <v>-0.06695510186491141</v>
+      </c>
+      <c r="I36">
+        <v>0.006205385163721338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006068102996245568</v>
+        <v>0.01047978365623277</v>
       </c>
       <c r="C38">
-        <v>0.007066074606378332</v>
+        <v>0.02638860195233264</v>
       </c>
       <c r="D38">
-        <v>-0.07818110968496103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0845483372954962</v>
+      </c>
+      <c r="E38">
+        <v>0.006804153847736786</v>
+      </c>
+      <c r="F38">
+        <v>-0.003810196045707822</v>
+      </c>
+      <c r="G38">
+        <v>-0.01496361569652371</v>
+      </c>
+      <c r="H38">
+        <v>-0.07606934062437991</v>
+      </c>
+      <c r="I38">
+        <v>0.03770011961163632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01674209000788242</v>
+        <v>0.003005550659056071</v>
       </c>
       <c r="C39">
-        <v>0.05946882186572187</v>
+        <v>0.07931649192407543</v>
       </c>
       <c r="D39">
-        <v>-0.1053011479524496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.08732236591746353</v>
+      </c>
+      <c r="E39">
+        <v>0.05252409048137579</v>
+      </c>
+      <c r="F39">
+        <v>0.01113165985786062</v>
+      </c>
+      <c r="G39">
+        <v>0.03767205293416224</v>
+      </c>
+      <c r="H39">
+        <v>-0.09552911268027375</v>
+      </c>
+      <c r="I39">
+        <v>0.02913253064122065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01788876567276645</v>
+        <v>0.01290968318630561</v>
       </c>
       <c r="C40">
-        <v>0.02264567941923937</v>
+        <v>0.03862605116959712</v>
       </c>
       <c r="D40">
-        <v>-0.1074530893437085</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09178187519544864</v>
+      </c>
+      <c r="E40">
+        <v>0.03907789565618761</v>
+      </c>
+      <c r="F40">
+        <v>0.01490345708950526</v>
+      </c>
+      <c r="G40">
+        <v>-0.0458768114181993</v>
+      </c>
+      <c r="H40">
+        <v>-0.1105009539616864</v>
+      </c>
+      <c r="I40">
+        <v>-0.03878822845383624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01053584914471985</v>
+        <v>0.01437931140009415</v>
       </c>
       <c r="C41">
-        <v>0.004123917718225595</v>
+        <v>0.0198277205349458</v>
       </c>
       <c r="D41">
-        <v>-0.03011502797540967</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04190409348425616</v>
+      </c>
+      <c r="E41">
+        <v>-0.006090269839693658</v>
+      </c>
+      <c r="F41">
+        <v>-0.02265782715253669</v>
+      </c>
+      <c r="G41">
+        <v>0.005270330566345866</v>
+      </c>
+      <c r="H41">
+        <v>-0.04660014676793961</v>
+      </c>
+      <c r="I41">
+        <v>0.009303027366968836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001335282790911797</v>
+        <v>0.007055278801777842</v>
       </c>
       <c r="C43">
-        <v>0.003991857822953731</v>
+        <v>0.0160414552968061</v>
       </c>
       <c r="D43">
-        <v>-0.04955993247391333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05093132780465387</v>
+      </c>
+      <c r="E43">
+        <v>0.01148335505395565</v>
+      </c>
+      <c r="F43">
+        <v>-0.02030267123927665</v>
+      </c>
+      <c r="G43">
+        <v>0.006672680226414267</v>
+      </c>
+      <c r="H43">
+        <v>-0.05698027297067589</v>
+      </c>
+      <c r="I43">
+        <v>0.0260061919014876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02069923737694479</v>
+        <v>0.01151481115597339</v>
       </c>
       <c r="C44">
-        <v>0.0229750409983113</v>
+        <v>0.04878098660633059</v>
       </c>
       <c r="D44">
-        <v>-0.08415941992116727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1006774926153729</v>
+      </c>
+      <c r="E44">
+        <v>0.0353011145122487</v>
+      </c>
+      <c r="F44">
+        <v>-0.03660795764018469</v>
+      </c>
+      <c r="G44">
+        <v>-0.02041282256399769</v>
+      </c>
+      <c r="H44">
+        <v>-0.06580184647817945</v>
+      </c>
+      <c r="I44">
+        <v>0.01666689632587447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007707374902616022</v>
+        <v>-0.001489629662442903</v>
       </c>
       <c r="C46">
-        <v>0.03028083327198389</v>
+        <v>0.04296314330717289</v>
       </c>
       <c r="D46">
-        <v>-0.07899795617496048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.06911040356652949</v>
+      </c>
+      <c r="E46">
+        <v>0.04335283403138979</v>
+      </c>
+      <c r="F46">
+        <v>-0.02754986844052643</v>
+      </c>
+      <c r="G46">
+        <v>0.0174506633392681</v>
+      </c>
+      <c r="H46">
+        <v>-0.1318342550653681</v>
+      </c>
+      <c r="I46">
+        <v>0.02410801598608277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07845618613123087</v>
+        <v>0.03005721061393723</v>
       </c>
       <c r="C47">
-        <v>0.1068232599591559</v>
+        <v>0.1290384136860993</v>
       </c>
       <c r="D47">
-        <v>-0.04965473524835513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02135083015035373</v>
+      </c>
+      <c r="E47">
+        <v>-0.008157549044328628</v>
+      </c>
+      <c r="F47">
+        <v>0.00806814798510397</v>
+      </c>
+      <c r="G47">
+        <v>0.05185425089929912</v>
+      </c>
+      <c r="H47">
+        <v>-0.0396911926400077</v>
+      </c>
+      <c r="I47">
+        <v>0.02133352869150619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009331810151891018</v>
+        <v>0.01411206286001108</v>
       </c>
       <c r="C48">
-        <v>0.01715616561143749</v>
+        <v>0.03429996239540607</v>
       </c>
       <c r="D48">
-        <v>-0.06894743593424217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07567704996770835</v>
+      </c>
+      <c r="E48">
+        <v>0.02164863302038319</v>
+      </c>
+      <c r="F48">
+        <v>-0.0543136936866364</v>
+      </c>
+      <c r="G48">
+        <v>0.01923847457254839</v>
+      </c>
+      <c r="H48">
+        <v>-0.1117854164246057</v>
+      </c>
+      <c r="I48">
+        <v>0.02082688751427552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03288432579288152</v>
+        <v>0.01077031916715749</v>
       </c>
       <c r="C50">
-        <v>0.05790348435012409</v>
+        <v>0.07566046859323632</v>
       </c>
       <c r="D50">
-        <v>-0.05410815948669567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0465341617819319</v>
+      </c>
+      <c r="E50">
+        <v>0.01688677000230755</v>
+      </c>
+      <c r="F50">
+        <v>-0.006423534653056407</v>
+      </c>
+      <c r="G50">
+        <v>-0.001571491117922762</v>
+      </c>
+      <c r="H50">
+        <v>-0.02856785023207447</v>
+      </c>
+      <c r="I50">
+        <v>0.0176038369948874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00103335374154131</v>
+        <v>-0.0008578458627536963</v>
       </c>
       <c r="C51">
-        <v>0.005168734581825789</v>
+        <v>0.0170340121279641</v>
       </c>
       <c r="D51">
-        <v>-0.05492556487944111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05542689068542594</v>
+      </c>
+      <c r="E51">
+        <v>0.03610994537933038</v>
+      </c>
+      <c r="F51">
+        <v>-0.03880872130372427</v>
+      </c>
+      <c r="G51">
+        <v>-0.01045704516848161</v>
+      </c>
+      <c r="H51">
+        <v>-0.06163536269947343</v>
+      </c>
+      <c r="I51">
+        <v>-0.01546982793948697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1073879934885838</v>
+        <v>0.05037304506995145</v>
       </c>
       <c r="C53">
-        <v>0.1250128454222626</v>
+        <v>0.1576513085022685</v>
       </c>
       <c r="D53">
-        <v>0.002661034810965909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02390536880433849</v>
+      </c>
+      <c r="E53">
+        <v>-0.02585994547025828</v>
+      </c>
+      <c r="F53">
+        <v>-0.04720499522139062</v>
+      </c>
+      <c r="G53">
+        <v>0.003048048234025014</v>
+      </c>
+      <c r="H53">
+        <v>-0.004743662962450646</v>
+      </c>
+      <c r="I53">
+        <v>0.01419381178600305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01052740930572952</v>
+        <v>0.00955959286462676</v>
       </c>
       <c r="C54">
-        <v>0.02130422178278778</v>
+        <v>0.03859314407647206</v>
       </c>
       <c r="D54">
-        <v>-0.08650929331933392</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.07658074283345123</v>
+      </c>
+      <c r="E54">
+        <v>0.0206027434208332</v>
+      </c>
+      <c r="F54">
+        <v>-0.00267510908690617</v>
+      </c>
+      <c r="G54">
+        <v>-0.001903845059929905</v>
+      </c>
+      <c r="H54">
+        <v>-0.08297473499637655</v>
+      </c>
+      <c r="I54">
+        <v>0.03252771821449289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09394702754553337</v>
+        <v>0.03907162021847258</v>
       </c>
       <c r="C55">
-        <v>0.1060173825223587</v>
+        <v>0.1315127394300651</v>
       </c>
       <c r="D55">
-        <v>-0.004152723593019859</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03315985260524629</v>
+      </c>
+      <c r="E55">
+        <v>0.008391337781956224</v>
+      </c>
+      <c r="F55">
+        <v>-0.009686657993719296</v>
+      </c>
+      <c r="G55">
+        <v>0.0008487033497477131</v>
+      </c>
+      <c r="H55">
+        <v>-0.008652348731092583</v>
+      </c>
+      <c r="I55">
+        <v>-0.01016665889482166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1347206139073306</v>
+        <v>0.05337956340607258</v>
       </c>
       <c r="C56">
-        <v>0.1452513360069344</v>
+        <v>0.1921606682496901</v>
       </c>
       <c r="D56">
-        <v>-0.005351528010736568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03253964225411164</v>
+      </c>
+      <c r="E56">
+        <v>-0.02863452689511742</v>
+      </c>
+      <c r="F56">
+        <v>-0.01503239157459538</v>
+      </c>
+      <c r="G56">
+        <v>-0.04612126196515043</v>
+      </c>
+      <c r="H56">
+        <v>-0.01973284488631721</v>
+      </c>
+      <c r="I56">
+        <v>-0.01460296717909022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009960841958837228</v>
+        <v>0.001228441827200562</v>
       </c>
       <c r="C58">
-        <v>0.01061834613873452</v>
+        <v>0.05645041217505164</v>
       </c>
       <c r="D58">
-        <v>-0.2086359500395673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2903739694830404</v>
+      </c>
+      <c r="E58">
+        <v>0.02262443771421146</v>
+      </c>
+      <c r="F58">
+        <v>-0.1274450517363964</v>
+      </c>
+      <c r="G58">
+        <v>-0.1683149440280825</v>
+      </c>
+      <c r="H58">
+        <v>0.03449203426696002</v>
+      </c>
+      <c r="I58">
+        <v>0.03517243462519788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1814790529188792</v>
+        <v>0.2542259264696771</v>
       </c>
       <c r="C59">
-        <v>-0.1461482171278905</v>
+        <v>-0.05656442317512704</v>
       </c>
       <c r="D59">
-        <v>-0.03652918202010864</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05306333946690243</v>
+      </c>
+      <c r="E59">
+        <v>-0.02277041406848974</v>
+      </c>
+      <c r="F59">
+        <v>-0.02519680587532101</v>
+      </c>
+      <c r="G59">
+        <v>-0.007587913791898542</v>
+      </c>
+      <c r="H59">
+        <v>-0.004762016949517002</v>
+      </c>
+      <c r="I59">
+        <v>-0.03763430619937983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1835916542304378</v>
+        <v>0.1477984235008948</v>
       </c>
       <c r="C60">
-        <v>0.1015402986267413</v>
+        <v>0.1754196357373406</v>
       </c>
       <c r="D60">
-        <v>-0.2389213942684387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.09777075481717988</v>
+      </c>
+      <c r="E60">
+        <v>0.1537266827683639</v>
+      </c>
+      <c r="F60">
+        <v>0.2165870014880637</v>
+      </c>
+      <c r="G60">
+        <v>0.1985981037539574</v>
+      </c>
+      <c r="H60">
+        <v>0.2796818549964722</v>
+      </c>
+      <c r="I60">
+        <v>-0.09665373768152544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02527005512294121</v>
+        <v>0.01017476143286535</v>
       </c>
       <c r="C61">
-        <v>0.0533750632470244</v>
+        <v>0.07504309275496265</v>
       </c>
       <c r="D61">
-        <v>-0.08683893936665475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.07096052482696422</v>
+      </c>
+      <c r="E61">
+        <v>0.03831139230855905</v>
+      </c>
+      <c r="F61">
+        <v>0.01743144626911009</v>
+      </c>
+      <c r="G61">
+        <v>0.04865721326452576</v>
+      </c>
+      <c r="H61">
+        <v>-0.0778410693066624</v>
+      </c>
+      <c r="I61">
+        <v>0.01901240173841357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.007425811814710854</v>
+        <v>0.008134078325607096</v>
       </c>
       <c r="C63">
-        <v>0.02337650641185615</v>
+        <v>0.03729699271047116</v>
       </c>
       <c r="D63">
-        <v>-0.09248732032683195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06700005422471905</v>
+      </c>
+      <c r="E63">
+        <v>0.05806668540691407</v>
+      </c>
+      <c r="F63">
+        <v>-0.02419016293939658</v>
+      </c>
+      <c r="G63">
+        <v>0.01884681571120914</v>
+      </c>
+      <c r="H63">
+        <v>-0.07348001286532731</v>
+      </c>
+      <c r="I63">
+        <v>0.01947713441213861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05824446222749104</v>
+        <v>0.01551272335174396</v>
       </c>
       <c r="C64">
-        <v>0.08671281359752006</v>
+        <v>0.105815948940943</v>
       </c>
       <c r="D64">
-        <v>-0.01030159224202342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004146698953140439</v>
+      </c>
+      <c r="E64">
+        <v>0.0250729606027138</v>
+      </c>
+      <c r="F64">
+        <v>-0.007245704847930626</v>
+      </c>
+      <c r="G64">
+        <v>0.05407658414966959</v>
+      </c>
+      <c r="H64">
+        <v>-0.05572089762503656</v>
+      </c>
+      <c r="I64">
+        <v>0.04720740655724345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02629482419872806</v>
+        <v>0.02068881108070161</v>
       </c>
       <c r="C65">
-        <v>0.01578776870673603</v>
+        <v>0.04466711702827268</v>
       </c>
       <c r="D65">
-        <v>-0.1078947061343707</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1142409053569091</v>
+      </c>
+      <c r="E65">
+        <v>0.04601802471309357</v>
+      </c>
+      <c r="F65">
+        <v>0.007273733231015749</v>
+      </c>
+      <c r="G65">
+        <v>0.03134750794668023</v>
+      </c>
+      <c r="H65">
+        <v>-0.008271656620375895</v>
+      </c>
+      <c r="I65">
+        <v>0.04249226789516785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02224488229196562</v>
+        <v>-0.0003852363000001919</v>
       </c>
       <c r="C66">
-        <v>0.06897124398957358</v>
+        <v>0.09794994992306409</v>
       </c>
       <c r="D66">
-        <v>-0.1222341262375305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1173120858832099</v>
+      </c>
+      <c r="E66">
+        <v>0.04340337873425568</v>
+      </c>
+      <c r="F66">
+        <v>0.01037788263713712</v>
+      </c>
+      <c r="G66">
+        <v>0.00336263374234502</v>
+      </c>
+      <c r="H66">
+        <v>-0.06958770946128801</v>
+      </c>
+      <c r="I66">
+        <v>0.02391356975409475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02382022677760616</v>
+        <v>0.02021780781553495</v>
       </c>
       <c r="C67">
-        <v>0.02033349455814172</v>
+        <v>0.03759078988323636</v>
       </c>
       <c r="D67">
-        <v>-0.04067119711747211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.04010521117181149</v>
+      </c>
+      <c r="E67">
+        <v>0.0124603859598379</v>
+      </c>
+      <c r="F67">
+        <v>0.027759761574448</v>
+      </c>
+      <c r="G67">
+        <v>0.001587641622446673</v>
+      </c>
+      <c r="H67">
+        <v>-0.06677311632542431</v>
+      </c>
+      <c r="I67">
+        <v>0.03156566999170201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2032137502655658</v>
+        <v>0.2774375157117808</v>
       </c>
       <c r="C68">
-        <v>-0.1554709458338488</v>
+        <v>-0.06297826767384701</v>
       </c>
       <c r="D68">
-        <v>-0.03144477814447204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03092489668927943</v>
+      </c>
+      <c r="E68">
+        <v>-0.0002686739531989111</v>
+      </c>
+      <c r="F68">
+        <v>-0.02861068645531583</v>
+      </c>
+      <c r="G68">
+        <v>-0.07487746231588675</v>
+      </c>
+      <c r="H68">
+        <v>0.04285191565005352</v>
+      </c>
+      <c r="I68">
+        <v>-0.01466700551946726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05369221112263844</v>
+        <v>0.01452743439684795</v>
       </c>
       <c r="C69">
-        <v>0.1160153875605949</v>
+        <v>0.1181357827402315</v>
       </c>
       <c r="D69">
-        <v>-0.07488452258728794</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02892259434004724</v>
+      </c>
+      <c r="E69">
+        <v>0.01008815135347257</v>
+      </c>
+      <c r="F69">
+        <v>0.009785994309935013</v>
+      </c>
+      <c r="G69">
+        <v>0.03242215422265778</v>
+      </c>
+      <c r="H69">
+        <v>-0.03615613005286433</v>
+      </c>
+      <c r="I69">
+        <v>0.005509376106694674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2132649160034957</v>
+        <v>0.2770150109150651</v>
       </c>
       <c r="C71">
-        <v>-0.1791782765697538</v>
+        <v>-0.07569890289988312</v>
       </c>
       <c r="D71">
-        <v>-0.0130054130077676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01590400486399854</v>
+      </c>
+      <c r="E71">
+        <v>-0.0008128319729210172</v>
+      </c>
+      <c r="F71">
+        <v>-0.01670409832130758</v>
+      </c>
+      <c r="G71">
+        <v>-0.03396017844370939</v>
+      </c>
+      <c r="H71">
+        <v>-0.01179568356559272</v>
+      </c>
+      <c r="I71">
+        <v>0.005376802366356477</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1027769972408226</v>
+        <v>0.05387491699406433</v>
       </c>
       <c r="C72">
-        <v>0.07720233980868832</v>
+        <v>0.1289355199946994</v>
       </c>
       <c r="D72">
-        <v>-0.1244304933731796</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06111473812653946</v>
+      </c>
+      <c r="E72">
+        <v>0.0701961532960957</v>
+      </c>
+      <c r="F72">
+        <v>0.02848823663678133</v>
+      </c>
+      <c r="G72">
+        <v>0.05082566564370117</v>
+      </c>
+      <c r="H72">
+        <v>-0.03952520112590666</v>
+      </c>
+      <c r="I72">
+        <v>0.02831063303458401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1726763524790155</v>
+        <v>0.1380289207889175</v>
       </c>
       <c r="C73">
-        <v>0.06728980270094076</v>
+        <v>0.1511178872469972</v>
       </c>
       <c r="D73">
-        <v>-0.3086809412217886</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1009262214856384</v>
+      </c>
+      <c r="E73">
+        <v>0.2746793503929217</v>
+      </c>
+      <c r="F73">
+        <v>0.3080288860262878</v>
+      </c>
+      <c r="G73">
+        <v>0.3652340114530361</v>
+      </c>
+      <c r="H73">
+        <v>0.2509898367847036</v>
+      </c>
+      <c r="I73">
+        <v>-0.01434984087822853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1065646441658466</v>
+        <v>0.04850346134193369</v>
       </c>
       <c r="C74">
-        <v>0.1143731236581703</v>
+        <v>0.144122333868192</v>
       </c>
       <c r="D74">
-        <v>0.02601272510951816</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04311196086645917</v>
+      </c>
+      <c r="E74">
+        <v>-0.008968925959296162</v>
+      </c>
+      <c r="F74">
+        <v>-0.03445290001957707</v>
+      </c>
+      <c r="G74">
+        <v>0.00412403740477093</v>
+      </c>
+      <c r="H74">
+        <v>0.02184263236009503</v>
+      </c>
+      <c r="I74">
+        <v>-0.007672383989760925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2320918069001292</v>
+        <v>0.09830880155335429</v>
       </c>
       <c r="C75">
-        <v>0.1979963389704809</v>
+        <v>0.2704997911090425</v>
       </c>
       <c r="D75">
-        <v>0.09883885113994462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.130915472154549</v>
+      </c>
+      <c r="E75">
+        <v>-0.09517550528503009</v>
+      </c>
+      <c r="F75">
+        <v>0.02816302212986132</v>
+      </c>
+      <c r="G75">
+        <v>-0.1024222296898468</v>
+      </c>
+      <c r="H75">
+        <v>-0.04305284537710496</v>
+      </c>
+      <c r="I75">
+        <v>0.04746126733278174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1375705811492816</v>
+        <v>0.05601277766404444</v>
       </c>
       <c r="C76">
-        <v>0.1381589523993076</v>
+        <v>0.1811491019390466</v>
       </c>
       <c r="D76">
-        <v>-0.002914400664632631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04691547101260409</v>
+      </c>
+      <c r="E76">
+        <v>-0.02054999610222807</v>
+      </c>
+      <c r="F76">
+        <v>-0.002062090064671816</v>
+      </c>
+      <c r="G76">
+        <v>-0.03392707306465963</v>
+      </c>
+      <c r="H76">
+        <v>-0.04010936847763176</v>
+      </c>
+      <c r="I76">
+        <v>0.00222512504885861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02159866694467215</v>
+        <v>-0.002929530656343991</v>
       </c>
       <c r="C77">
-        <v>0.06811200717155544</v>
+        <v>0.1071929397833743</v>
       </c>
       <c r="D77">
-        <v>0.04255774736649882</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.3231932578508334</v>
+      </c>
+      <c r="E77">
+        <v>-0.8485376987455697</v>
+      </c>
+      <c r="F77">
+        <v>0.1979042462535354</v>
+      </c>
+      <c r="G77">
+        <v>0.1581452504876619</v>
+      </c>
+      <c r="H77">
+        <v>0.1826846782014257</v>
+      </c>
+      <c r="I77">
+        <v>0.02570210382437559</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03026083568960945</v>
+        <v>0.01522516551815126</v>
       </c>
       <c r="C78">
-        <v>0.07054040892862744</v>
+        <v>0.09209255321294253</v>
       </c>
       <c r="D78">
-        <v>-0.1416608599287267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1113861638075039</v>
+      </c>
+      <c r="E78">
+        <v>0.06441702733568001</v>
+      </c>
+      <c r="F78">
+        <v>-0.04415019219506146</v>
+      </c>
+      <c r="G78">
+        <v>-0.02801607920445661</v>
+      </c>
+      <c r="H78">
+        <v>-0.05222426826235947</v>
+      </c>
+      <c r="I78">
+        <v>-0.04643764052078699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09947047624086128</v>
+        <v>0.03353434766784989</v>
       </c>
       <c r="C79">
-        <v>0.1846718440154147</v>
+        <v>0.196884867288966</v>
       </c>
       <c r="D79">
-        <v>0.2472898441594357</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08928750523671607</v>
+      </c>
+      <c r="E79">
+        <v>-0.05369537819686027</v>
+      </c>
+      <c r="F79">
+        <v>-0.7902167401319862</v>
+      </c>
+      <c r="G79">
+        <v>0.3293823219171154</v>
+      </c>
+      <c r="H79">
+        <v>0.3397082678608833</v>
+      </c>
+      <c r="I79">
+        <v>0.04144956592081223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003698838003333037</v>
+        <v>0.003921980235198739</v>
       </c>
       <c r="C80">
-        <v>0.04521758008382816</v>
+        <v>0.04467768369667056</v>
       </c>
       <c r="D80">
-        <v>-0.05097517551490174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04001375157038957</v>
+      </c>
+      <c r="E80">
+        <v>0.04401235451102273</v>
+      </c>
+      <c r="F80">
+        <v>-0.00129319968367071</v>
+      </c>
+      <c r="G80">
+        <v>0.01102866971120872</v>
+      </c>
+      <c r="H80">
+        <v>-0.02888697767406556</v>
+      </c>
+      <c r="I80">
+        <v>-0.08472770979631113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1177792170353371</v>
+        <v>0.03887129667678575</v>
       </c>
       <c r="C81">
-        <v>0.1357332312698708</v>
+        <v>0.1665095455428828</v>
       </c>
       <c r="D81">
-        <v>0.08195728092450706</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.08545825205823002</v>
+      </c>
+      <c r="E81">
+        <v>-0.04497249551442259</v>
+      </c>
+      <c r="F81">
+        <v>-0.05814349254241252</v>
+      </c>
+      <c r="G81">
+        <v>-0.03802045824824772</v>
+      </c>
+      <c r="H81">
+        <v>-0.07671726931297285</v>
+      </c>
+      <c r="I81">
+        <v>-0.01392126355874384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2491738424976105</v>
+        <v>0.08442157248312541</v>
       </c>
       <c r="C82">
-        <v>0.2933520066066497</v>
+        <v>0.3182838748190709</v>
       </c>
       <c r="D82">
-        <v>0.1792723909529307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2418799340947924</v>
+      </c>
+      <c r="E82">
+        <v>-0.06558151053580191</v>
+      </c>
+      <c r="F82">
+        <v>0.1149515062014279</v>
+      </c>
+      <c r="G82">
+        <v>-0.08715153797067211</v>
+      </c>
+      <c r="H82">
+        <v>-0.1239549639083686</v>
+      </c>
+      <c r="I82">
+        <v>-0.02027833637726064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01021721812907912</v>
+        <v>-0.01599469655568</v>
       </c>
       <c r="C83">
-        <v>0.05200190942119882</v>
+        <v>0.01767737939019282</v>
       </c>
       <c r="D83">
-        <v>0.009386586844864184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01380833546942903</v>
+      </c>
+      <c r="E83">
+        <v>-0.08058402470099363</v>
+      </c>
+      <c r="F83">
+        <v>-0.06234997014469477</v>
+      </c>
+      <c r="G83">
+        <v>0.0409828606933697</v>
+      </c>
+      <c r="H83">
+        <v>-0.09937228236359313</v>
+      </c>
+      <c r="I83">
+        <v>-0.9293968625846969</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0001909932503562216</v>
+        <v>-0.003509447188737374</v>
       </c>
       <c r="C84">
-        <v>-0.00126277983234834</v>
+        <v>0.01766817073380167</v>
       </c>
       <c r="D84">
-        <v>-0.00201504995719397</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04346803009922089</v>
+      </c>
+      <c r="E84">
+        <v>-0.002105566396218528</v>
+      </c>
+      <c r="F84">
+        <v>-0.03270525732663472</v>
+      </c>
+      <c r="G84">
+        <v>-0.04314542512168928</v>
+      </c>
+      <c r="H84">
+        <v>-0.04961722658878855</v>
+      </c>
+      <c r="I84">
+        <v>0.05092905610271366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1398227727955441</v>
+        <v>0.05346701252850739</v>
       </c>
       <c r="C85">
-        <v>0.1410784308292422</v>
+        <v>0.1839049633280421</v>
       </c>
       <c r="D85">
-        <v>0.05397559621342791</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09935766369477773</v>
+      </c>
+      <c r="E85">
+        <v>0.000368049443045661</v>
+      </c>
+      <c r="F85">
+        <v>-0.06896589686899647</v>
+      </c>
+      <c r="G85">
+        <v>-0.01936331880316592</v>
+      </c>
+      <c r="H85">
+        <v>0.007290067544010655</v>
+      </c>
+      <c r="I85">
+        <v>0.002879645593456559</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01687136961580057</v>
+        <v>0.01146419009380135</v>
       </c>
       <c r="C86">
-        <v>0.009312403830402785</v>
+        <v>0.03583000362603453</v>
       </c>
       <c r="D86">
-        <v>-0.09317086128133835</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1097351631223363</v>
+      </c>
+      <c r="E86">
+        <v>-0.01375745173625423</v>
+      </c>
+      <c r="F86">
+        <v>-0.006566505770093136</v>
+      </c>
+      <c r="G86">
+        <v>0.0165138961839014</v>
+      </c>
+      <c r="H86">
+        <v>-0.03623330136050514</v>
+      </c>
+      <c r="I86">
+        <v>0.01876683704063896</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02137393704481452</v>
+        <v>0.01028717802547738</v>
       </c>
       <c r="C87">
-        <v>0.02608460156804671</v>
+        <v>0.06048663588511502</v>
       </c>
       <c r="D87">
-        <v>-0.121104108780212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1383044025208234</v>
+      </c>
+      <c r="E87">
+        <v>0.01304665817076247</v>
+      </c>
+      <c r="F87">
+        <v>-0.04191575069899049</v>
+      </c>
+      <c r="G87">
+        <v>-0.03761520697368756</v>
+      </c>
+      <c r="H87">
+        <v>-0.07574410995899737</v>
+      </c>
+      <c r="I87">
+        <v>-0.02654580205731823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.04998919113725214</v>
+        <v>0.03011356825479983</v>
       </c>
       <c r="C88">
-        <v>0.04444097667302428</v>
+        <v>0.06816903321813272</v>
       </c>
       <c r="D88">
-        <v>-0.01719563283332741</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01443180269887698</v>
+      </c>
+      <c r="E88">
+        <v>0.03021667367931239</v>
+      </c>
+      <c r="F88">
+        <v>-0.01905330957881597</v>
+      </c>
+      <c r="G88">
+        <v>0.01570069683664014</v>
+      </c>
+      <c r="H88">
+        <v>-0.004968963688368266</v>
+      </c>
+      <c r="I88">
+        <v>0.02805699287412416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3201439166723727</v>
+        <v>0.4111139982413948</v>
       </c>
       <c r="C89">
-        <v>-0.325767242593922</v>
+        <v>-0.1469316228409861</v>
       </c>
       <c r="D89">
-        <v>-0.003427338547684071</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0375456352989847</v>
+      </c>
+      <c r="E89">
+        <v>-0.05181244221125629</v>
+      </c>
+      <c r="F89">
+        <v>-0.05981755753442494</v>
+      </c>
+      <c r="G89">
+        <v>0.02130739826584428</v>
+      </c>
+      <c r="H89">
+        <v>-0.1218402697535745</v>
+      </c>
+      <c r="I89">
+        <v>-0.08878302651534231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2552092397151758</v>
+        <v>0.3218665056198899</v>
       </c>
       <c r="C90">
-        <v>-0.2388927318031607</v>
+        <v>-0.09886053154085221</v>
       </c>
       <c r="D90">
-        <v>-0.04563769305690771</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03656228896272851</v>
+      </c>
+      <c r="E90">
+        <v>-0.01064985827799921</v>
+      </c>
+      <c r="F90">
+        <v>0.002533242884524532</v>
+      </c>
+      <c r="G90">
+        <v>-0.06748309601849808</v>
+      </c>
+      <c r="H90">
+        <v>-0.01356037629724939</v>
+      </c>
+      <c r="I90">
+        <v>-0.03386759989210679</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1544105659935319</v>
+        <v>0.06315104439419451</v>
       </c>
       <c r="C91">
-        <v>0.1847653297157429</v>
+        <v>0.2068487724327666</v>
       </c>
       <c r="D91">
-        <v>0.107237327956554</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.110537975380876</v>
+      </c>
+      <c r="E91">
+        <v>-0.05814593503085569</v>
+      </c>
+      <c r="F91">
+        <v>-0.06419885942562606</v>
+      </c>
+      <c r="G91">
+        <v>-0.00500943869930031</v>
+      </c>
+      <c r="H91">
+        <v>0.01198756691828934</v>
+      </c>
+      <c r="I91">
+        <v>-0.02606935183366188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2413446101983045</v>
+        <v>0.340413672066684</v>
       </c>
       <c r="C92">
-        <v>-0.2621644618797639</v>
+        <v>-0.1341885545234599</v>
       </c>
       <c r="D92">
-        <v>0.069420576368703</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003307756096961968</v>
+      </c>
+      <c r="E92">
+        <v>-0.06458982009251235</v>
+      </c>
+      <c r="F92">
+        <v>-0.03388486159924983</v>
+      </c>
+      <c r="G92">
+        <v>-0.03933129708437965</v>
+      </c>
+      <c r="H92">
+        <v>-0.03286552408501926</v>
+      </c>
+      <c r="I92">
+        <v>0.1353031727319391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2829779706524899</v>
+        <v>0.3361673329744816</v>
       </c>
       <c r="C93">
-        <v>-0.249057334456336</v>
+        <v>-0.1067368094121446</v>
       </c>
       <c r="D93">
-        <v>-0.006391978403606078</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01990295890358826</v>
+      </c>
+      <c r="E93">
+        <v>0.0250115237072191</v>
+      </c>
+      <c r="F93">
+        <v>-0.006390374666016231</v>
+      </c>
+      <c r="G93">
+        <v>0.002998224342000316</v>
+      </c>
+      <c r="H93">
+        <v>0.01827626369555431</v>
+      </c>
+      <c r="I93">
+        <v>0.03457058780037349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2909205652461604</v>
+        <v>0.1187251990215406</v>
       </c>
       <c r="C94">
-        <v>0.2725764308632851</v>
+        <v>0.3499209910409586</v>
       </c>
       <c r="D94">
-        <v>0.294252580911959</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3556595573267647</v>
+      </c>
+      <c r="E94">
+        <v>-0.05465780438824809</v>
+      </c>
+      <c r="F94">
+        <v>0.1078444885910689</v>
+      </c>
+      <c r="G94">
+        <v>-0.3322077945843919</v>
+      </c>
+      <c r="H94">
+        <v>-0.01486599949519154</v>
+      </c>
+      <c r="I94">
+        <v>0.001384266363208589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01366138189026073</v>
+        <v>0.01378622913480057</v>
       </c>
       <c r="C95">
-        <v>0.04261831999825381</v>
+        <v>0.06641411465459499</v>
       </c>
       <c r="D95">
-        <v>0.01816590823307247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0931216022749143</v>
+      </c>
+      <c r="E95">
+        <v>-0.1664774950088949</v>
+      </c>
+      <c r="F95">
+        <v>0.03375338733145787</v>
+      </c>
+      <c r="G95">
+        <v>0.1306437121565063</v>
+      </c>
+      <c r="H95">
+        <v>-0.3280350758922563</v>
+      </c>
+      <c r="I95">
+        <v>0.1494089840963876</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001598413000613084</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009285930368963662</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0008781576463100891</v>
+      </c>
+      <c r="E97">
+        <v>0.004120222254208158</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004418100179018653</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005176135294449816</v>
+      </c>
+      <c r="H97">
+        <v>-0.004243472947380261</v>
+      </c>
+      <c r="I97">
+        <v>0.00592923342877489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1499364329787658</v>
+        <v>0.1196613210628023</v>
       </c>
       <c r="C98">
-        <v>0.0855299869314793</v>
+        <v>0.1550718530926226</v>
       </c>
       <c r="D98">
-        <v>-0.1975399127642711</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.07133932573007482</v>
+      </c>
+      <c r="E98">
+        <v>0.1857479860187972</v>
+      </c>
+      <c r="F98">
+        <v>0.2359863486450535</v>
+      </c>
+      <c r="G98">
+        <v>0.2532284528687008</v>
+      </c>
+      <c r="H98">
+        <v>0.2131571918874407</v>
+      </c>
+      <c r="I98">
+        <v>-0.05025595787954849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001011977179465258</v>
+        <v>0.001531109088607477</v>
       </c>
       <c r="C101">
-        <v>0.01934859962695929</v>
+        <v>0.03728387392250885</v>
       </c>
       <c r="D101">
-        <v>-0.08495712470261858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.098913218327666</v>
+      </c>
+      <c r="E101">
+        <v>0.05587017956765915</v>
+      </c>
+      <c r="F101">
+        <v>-0.03612271187456308</v>
+      </c>
+      <c r="G101">
+        <v>0.03677331691024931</v>
+      </c>
+      <c r="H101">
+        <v>-0.1466161913488236</v>
+      </c>
+      <c r="I101">
+        <v>-0.006509225499126193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1054816751327786</v>
+        <v>0.02644686052455543</v>
       </c>
       <c r="C102">
-        <v>0.1574521040483962</v>
+        <v>0.1479977435818309</v>
       </c>
       <c r="D102">
-        <v>0.05458816464555297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09914527696551305</v>
+      </c>
+      <c r="E102">
+        <v>-0.03855009773650089</v>
+      </c>
+      <c r="F102">
+        <v>0.06835336800737346</v>
+      </c>
+      <c r="G102">
+        <v>0.00700361812276163</v>
+      </c>
+      <c r="H102">
+        <v>-0.03811895626968293</v>
+      </c>
+      <c r="I102">
+        <v>-0.02057908532379494</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
